--- a/ISA AND MICROARCHITECTURE/ISA/ISA.xlsx
+++ b/ISA AND MICROARCHITECTURE/ISA/ISA.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/jeykimers_johnson_estudiantec_cr/Documents/semesters/2022 - Sem II/Arquitectura I/ProjectGrupal1/proyectogrupal1/ISA y microarquitectura/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/jeykimers_johnson_estudiantec_cr/Documents/semesters/2022 - Sem II/Arquitectura I/ProjectGrupal1/proyectogrupal1/ISA AND MICROARCHITECTURE/ISA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{468B82D3-7401-4FB8-8265-498E997AA762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D97FA75E-258E-4E12-B8E5-B26B2AD1A79B}"/>
+  <xr:revisionPtr revIDLastSave="747" documentId="13_ncr:1_{468B82D3-7401-4FB8-8265-498E997AA762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C216DB27-FBB3-4E91-8532-3CFE53575D13}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12163" xr2:uid="{5415A85A-6E18-4C2E-8E3D-011908CE6A7F}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12163" activeTab="1" xr2:uid="{5415A85A-6E18-4C2E-8E3D-011908CE6A7F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="BINARY" sheetId="1" r:id="rId1"/>
+    <sheet name="SYNTAXIS" sheetId="3" r:id="rId2"/>
+    <sheet name="DETAILS" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="172">
   <si>
     <t>cond</t>
   </si>
@@ -105,30 +107,9 @@
     <t>SUB</t>
   </si>
   <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
     <t>CMP</t>
   </si>
   <si>
-    <t>ADDI</t>
-  </si>
-  <si>
-    <t>SUBI</t>
-  </si>
-  <si>
-    <t>ANDI</t>
-  </si>
-  <si>
-    <t>ORI</t>
-  </si>
-  <si>
-    <t>CMPI</t>
-  </si>
-  <si>
     <t>29:27</t>
   </si>
   <si>
@@ -249,12 +230,6 @@
     <t>MOV</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>xxxx</t>
   </si>
   <si>
@@ -286,13 +261,756 @@
   </si>
   <si>
     <t>JLT</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>EJEMPLO</t>
+  </si>
+  <si>
+    <t>INSTRUCCIÓN</t>
+  </si>
+  <si>
+    <t>COMPORTAMIENTO</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>memoria</t>
+  </si>
+  <si>
+    <t>registro</t>
+  </si>
+  <si>
+    <t>dato</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN/PROPÓSITO</t>
+  </si>
+  <si>
+    <t>No Operation</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Esta instrucción no hace nada durante la ejecución. 
+Se utiliza con fines de temporización, para prevenir riesgos y para invalidar una instrucción existente, como un salto, como objetivo de una instrucción de ejecución.</t>
+  </si>
+  <si>
+    <t>Esta instrucción activa la bandera de COM.
+Se utiliza como indicador para iniciar la comunicación con el arduino.</t>
+  </si>
+  <si>
+    <t>MODO</t>
+  </si>
+  <si>
+    <t>no aplica</t>
+  </si>
+  <si>
+    <t>inmediato</t>
+  </si>
+  <si>
+    <t>ADD R3, R4, R5</t>
+  </si>
+  <si>
+    <t>MOV Rd, Imm</t>
+  </si>
+  <si>
+    <t>MOV Rd, Rb</t>
+  </si>
+  <si>
+    <t>MOV R4, R5</t>
+  </si>
+  <si>
+    <t>MOV R4, #20</t>
+  </si>
+  <si>
+    <t>MUL R1, R0, R2</t>
+  </si>
+  <si>
+    <t>MUL Rd, Ra, Rb</t>
+  </si>
+  <si>
+    <t>MUL Rd, Ra, Imm</t>
+  </si>
+  <si>
+    <t>CMP R6, R7</t>
+  </si>
+  <si>
+    <t>CMP R6, #8</t>
+  </si>
+  <si>
+    <t>CMP Ra, Rb</t>
+  </si>
+  <si>
+    <t>CMP Ra, Imm</t>
+  </si>
+  <si>
+    <t>SUB Rd, Ra, Imm</t>
+  </si>
+  <si>
+    <t>ADD Rd, Ra, Imm</t>
+  </si>
+  <si>
+    <t>ADD Rd, Ra, Rb</t>
+  </si>
+  <si>
+    <t>SUB Rd, Ra, Rb</t>
+  </si>
+  <si>
+    <t>LDR R4, [R5, #8]</t>
+  </si>
+  <si>
+    <t>LDR R4, [R5]</t>
+  </si>
+  <si>
+    <t>STR Rd, [Ra]</t>
+  </si>
+  <si>
+    <t>LDR Rd, [Ra]</t>
+  </si>
+  <si>
+    <t>LDR Rd, [Ra, Imm]</t>
+  </si>
+  <si>
+    <t>STR Rd, [Ra, Imm]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ra + Rb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Rb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ra • Rb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ra – Rb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">COMFlag </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ENDFlag </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rn – Ext. Imm; ALUFLags </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NZ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rn – Rm; ALUFLags </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NZ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PC + 4; Flags ← 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> MEM[Ra + Ext. Imm]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> MEM[Ra + 0]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MEM[Ra + 0] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Rd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MEM[Ra + Ext. Imm] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Rd</t>
+    </r>
+  </si>
+  <si>
+    <t>condicional</t>
+  </si>
+  <si>
+    <t>JMP LABEL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ext. Imm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ext. Imm</t>
+    </r>
+  </si>
+  <si>
+    <t>JEQ LABEL</t>
+  </si>
+  <si>
+    <t>JLT LABEL</t>
+  </si>
+  <si>
+    <t>JMP _loop</t>
+  </si>
+  <si>
+    <t>JEQ _loop</t>
+  </si>
+  <si>
+    <t>JLT _loop</t>
+  </si>
+  <si>
+    <t>incondicional</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ext. Imm  if Z=1 else PC+4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ext. Imm  if N=1 else PC+4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ra • Ext. Imm</t>
+    </r>
+  </si>
+  <si>
+    <t>MUL R1, R0, #7</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ra – Ext. Imm</t>
+    </r>
+  </si>
+  <si>
+    <t>ADD R3, R4, #5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ra + Ext. Imm</t>
+    </r>
+  </si>
+  <si>
+    <t>SINTAXIS</t>
+  </si>
+  <si>
+    <t>OP CODE</t>
+  </si>
+  <si>
+    <t>Esta instrucción activa la bandera de END.
+Se utiliza como indicador para indicar la finalización del algoritmo.</t>
+  </si>
+  <si>
+    <t>Jump less than</t>
+  </si>
+  <si>
+    <t>Jump equal</t>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>Compare</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>Substract</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Multiply</t>
+  </si>
+  <si>
+    <t>Esta instrucción realiza la suma de dos valores y los almacena en un registro destino.</t>
+  </si>
+  <si>
+    <t>Esta instrucción realiza la resta de dos valores y los almacena en un registro destino.</t>
+  </si>
+  <si>
+    <t>Esta instrucción almacena el valor de un registro o inmediato recibido en un registro destino.</t>
+  </si>
+  <si>
+    <t>Esta instrucción realiza la multiplicación de dos valores y los almacena en un registro destino.</t>
+  </si>
+  <si>
+    <t>Esta instrucción realiza la resta de dos valores y actualiza las banderas de la ALU acorde al resultado que obtiene.</t>
+  </si>
+  <si>
+    <t>Esta instrucción guarda en el primer registro de la instrucción el valor ubicado en la dirección de memoria efectiva conformada por el valor del segundo registro adicionado a un indice que puede ser indicado con un inmediato u otro registro.
+Si no se indica un indice, se asume un cero y la dirección efectiva es igual al segundo registro.</t>
+  </si>
+  <si>
+    <t>Esta instrucción guarda el valor del primer registro de la instrucción en la dirección de memoria efectiva conformada por el valor del segundo registro adicionado a un indice que puede ser indicado con un inmediato u otro registro.
+Si no se indica un indice, se asume un cero y la dirección efectiva es igual al segundo registro.</t>
+  </si>
+  <si>
+    <t>Esta instrucción realiza un salto a la primera instrucción después de la etiqueta que se indica.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Esta instrucción comprueba si la bandera Z (cero) se ha accionado, si es así realiza un salto a la primera instrucción después de la etiqueta correspondiente, sino continua con la siguiente instrucción.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NOTA: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>La instrucción CMP debe ser utilizada antes de emplear esta instrucción, en caso contrario podría tener un funcionamiento incierto.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Esta instrucción comprueba si la bandera N (negativo) se ha accionado, si es así realiza un salto a la primera instrucción después de la etiqueta correspondiente, sino continua con la siguiente instrucción.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NOTA: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>La instrucción CMP debe ser utilizada antes de emplear esta instrucción, en caso contrario podría tener un funcionamiento incierto.</t>
+    </r>
+  </si>
+  <si>
+    <t>STR R1, [R6]</t>
+  </si>
+  <si>
+    <t>STR R1, [R6, #52]</t>
+  </si>
+  <si>
+    <t>SUB R9, R8, #2</t>
+  </si>
+  <si>
+    <t>SUB R9, R8, R3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,8 +1105,41 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,8 +1224,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -646,11 +1403,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -736,10 +1504,54 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -787,6 +1599,12 @@
     <xf numFmtId="0" fontId="12" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -805,16 +1623,10 @@
     <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -832,6 +1644,9 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -846,6 +1661,27 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1181,10 +2017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98BBD8C-B9E8-4C66-8139-ABC2780EC3EF}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46:F46"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
@@ -1205,77 +2041,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
+      <c r="B1" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" ht="10.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="17.75" x14ac:dyDescent="0.35">
-      <c r="B3" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
+      <c r="B3" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
+      <c r="B4" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="60"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
+        <v>40</v>
+      </c>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
+      <c r="E6" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>17</v>
@@ -1286,16 +2122,16 @@
       <c r="D7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
+      <c r="E7" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>17</v>
@@ -1306,16 +2142,16 @@
       <c r="D8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38"/>
+      <c r="E8" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
     </row>
     <row r="9" spans="1:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>17</v>
@@ -1326,81 +2162,81 @@
       <c r="D9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="38"/>
+      <c r="E9" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
     </row>
     <row r="11" spans="1:9" ht="17.75" x14ac:dyDescent="0.35">
-      <c r="B11" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
+      <c r="B11" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
     </row>
     <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="63" t="s">
-        <v>47</v>
+      <c r="B12" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="80" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="64"/>
+        <v>48</v>
+      </c>
+      <c r="H13" s="81"/>
     </row>
     <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -1411,22 +2247,22 @@
         <v>18</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D15" s="12">
         <v>0</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -1437,707 +2273,1300 @@
         <v>18</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D16" s="12">
         <v>0</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D17" s="12">
         <v>0</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D18" s="12">
         <v>0</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D19" s="12">
         <v>0</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>57</v>
+      <c r="E19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" ht="17.75" x14ac:dyDescent="0.35">
+      <c r="A21" s="13"/>
+      <c r="B21" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+    </row>
+    <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="1:8" ht="17.75" x14ac:dyDescent="0.35">
+      <c r="B22" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+    </row>
+    <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
-      <c r="B23" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
+      <c r="B23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="82"/>
     </row>
     <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
-      <c r="B24" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
+      <c r="B24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="65" t="s">
+        <v>53</v>
+      </c>
       <c r="H24" s="65"/>
     </row>
     <row r="25" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="65"/>
+      <c r="A25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="48"/>
     </row>
     <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="18" t="s">
+      <c r="A26" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="55"/>
+      <c r="H26" s="48"/>
     </row>
     <row r="27" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D27" s="12">
         <v>1</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="52"/>
+        <v>63</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="70"/>
     </row>
     <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>32</v>
+      <c r="C28" s="31" t="s">
+        <v>27</v>
       </c>
       <c r="D28" s="12">
         <v>1</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="52"/>
+        <v>63</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="48"/>
     </row>
     <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D29" s="12">
         <v>1</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>72</v>
+      <c r="E29" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="70"/>
+    </row>
+    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:8" ht="17.75" x14ac:dyDescent="0.35">
+      <c r="B31" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+    </row>
+    <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B32" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+    </row>
+    <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B33" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="67"/>
+    </row>
+    <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B34" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="68"/>
+    </row>
+    <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" s="70"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="70"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:8" ht="17.75" x14ac:dyDescent="0.35">
+      <c r="B38" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+    </row>
+    <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B39" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="75"/>
+      <c r="G39" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="69"/>
+    </row>
+    <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B40" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="76"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="69"/>
+    </row>
+    <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B41" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="79"/>
+    </row>
+    <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="66"/>
+      <c r="G42" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" s="70"/>
+    </row>
+    <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="66"/>
+      <c r="G43" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="H43" s="70"/>
+    </row>
+    <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="52"/>
-    </row>
-    <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="12">
-        <v>1</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" s="52"/>
-    </row>
-    <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="12">
-        <v>1</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="52"/>
-    </row>
-    <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="12">
-        <v>1</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" s="52"/>
-    </row>
-    <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="12">
-        <v>1</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="H33" s="52"/>
-    </row>
-    <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:8" ht="17.75" x14ac:dyDescent="0.35">
-      <c r="B35" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-    </row>
-    <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B36" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-    </row>
-    <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B37" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="49"/>
-    </row>
-    <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B38" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="21" t="s">
+      <c r="B44" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="66"/>
+      <c r="G44" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="H38" s="50"/>
-    </row>
-    <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="52"/>
-    </row>
-    <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G40" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="H40" s="52"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:8" ht="17.75" x14ac:dyDescent="0.35">
-      <c r="B42" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-    </row>
-    <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B43" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" s="59"/>
-      <c r="G43" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="H43" s="51"/>
-    </row>
-    <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B44" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" s="60"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="51"/>
-    </row>
-    <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B45" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="57"/>
-    </row>
-    <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" s="52"/>
-    </row>
-    <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" s="48"/>
-      <c r="G47" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="H47" s="52"/>
-    </row>
-    <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="F48" s="48"/>
-      <c r="G48" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="H48" s="52"/>
+      <c r="H44" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="42">
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G39:H39"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G26:H26"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E43:F44"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="B24:D24"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E4:H5"/>
     <mergeCell ref="E8:H8"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E21" numberStoredAsText="1"/>
+    <ignoredError sqref="E19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABC4C37-9C9B-460F-ABDB-BABB93369D0A}">
+  <dimension ref="B2:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="32" customWidth="1"/>
+    <col min="2" max="2" width="15.296875" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="20.8984375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.09765625" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.59765625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="32"/>
+    <col min="8" max="8" width="10.69921875" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="32" customWidth="1"/>
+    <col min="10" max="10" width="67.5" style="32" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="44">
+        <v>0</v>
+      </c>
+      <c r="H3" s="88" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="44">
+        <v>1</v>
+      </c>
+      <c r="H4" s="88"/>
+    </row>
+    <row r="5" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="44">
+        <v>2</v>
+      </c>
+      <c r="H5" s="88"/>
+    </row>
+    <row r="6" spans="2:8" s="43" customFormat="1" ht="13.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="86">
+        <v>0</v>
+      </c>
+      <c r="H7" s="89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="87"/>
+      <c r="H8" s="90"/>
+    </row>
+    <row r="9" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="86">
+        <v>1</v>
+      </c>
+      <c r="H9" s="90"/>
+    </row>
+    <row r="10" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="87"/>
+      <c r="H10" s="90"/>
+    </row>
+    <row r="11" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="86">
+        <v>2</v>
+      </c>
+      <c r="H11" s="90"/>
+    </row>
+    <row r="12" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="87"/>
+      <c r="H12" s="90"/>
+    </row>
+    <row r="13" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="86">
+        <v>3</v>
+      </c>
+      <c r="H13" s="90"/>
+    </row>
+    <row r="14" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="87"/>
+      <c r="H14" s="90"/>
+    </row>
+    <row r="15" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="86">
+        <v>4</v>
+      </c>
+      <c r="H15" s="90"/>
+    </row>
+    <row r="16" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="87"/>
+      <c r="H16" s="91"/>
+    </row>
+    <row r="17" spans="2:8" s="43" customFormat="1" ht="13.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="38"/>
+    </row>
+    <row r="18" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="86">
+        <v>0</v>
+      </c>
+      <c r="H18" s="89" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="87"/>
+      <c r="H19" s="90"/>
+    </row>
+    <row r="20" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="86">
+        <v>1</v>
+      </c>
+      <c r="H20" s="90"/>
+    </row>
+    <row r="21" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="87"/>
+      <c r="H21" s="91"/>
+    </row>
+    <row r="22" spans="2:8" s="43" customFormat="1" ht="13.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="40"/>
+    </row>
+    <row r="23" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="44">
+        <v>0</v>
+      </c>
+      <c r="H23" s="88" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="44">
+        <v>1</v>
+      </c>
+      <c r="H24" s="88"/>
+    </row>
+    <row r="25" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="44">
+        <v>2</v>
+      </c>
+      <c r="H25" s="88"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="H7:H16"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEB0282-3FC1-4781-9F0B-0FB6CE0BD470}">
+  <dimension ref="B2:D18"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.19921875" customWidth="1"/>
+    <col min="4" max="4" width="80.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="15.55" x14ac:dyDescent="0.3">
+      <c r="B2" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="68.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="34.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="B6" s="35"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="36"/>
+    </row>
+    <row r="7" spans="2:4" ht="38.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="38.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="38.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="38.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="38.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="B12" s="35"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="36"/>
+    </row>
+    <row r="13" spans="2:4" ht="101.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="96.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="B15" s="35"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="36"/>
+    </row>
+    <row r="16" spans="2:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="84.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="85.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD358B2-7335-4163-8A2A-EBE61E673EB6}">
   <dimension ref="A2:D7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -2148,12 +3577,12 @@
   <sheetData>
     <row r="2" spans="1:4" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:4" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
     </row>
     <row r="4" spans="1:4" ht="15.55" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -2196,10 +3625,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.95" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="69"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
